--- a/Code/Results/Cases/Case_9_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.354530849213376</v>
+        <v>1.226219377683066</v>
       </c>
       <c r="C2">
-        <v>0.09237875392858541</v>
+        <v>0.100697677059685</v>
       </c>
       <c r="D2">
-        <v>0.04493860582212506</v>
+        <v>0.05153136993446594</v>
       </c>
       <c r="E2">
-        <v>0.04398727659732415</v>
+        <v>0.04271262210445492</v>
       </c>
       <c r="F2">
-        <v>1.340944136845962</v>
+        <v>1.187713434356084</v>
       </c>
       <c r="G2">
-        <v>1.076394036485567</v>
+        <v>0.9241076047251084</v>
       </c>
       <c r="H2">
-        <v>0.01890880606679735</v>
+        <v>0.0151435454805231</v>
       </c>
       <c r="I2">
-        <v>0.02469482213982088</v>
+        <v>0.01818117497791061</v>
       </c>
       <c r="J2">
-        <v>0.7551550888818213</v>
+        <v>0.672117527123433</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06497534109603365</v>
+        <v>0.2859976636210746</v>
       </c>
       <c r="M2">
-        <v>1.118462239528952</v>
+        <v>0.249025112396339</v>
       </c>
       <c r="N2">
-        <v>0.184913907488621</v>
+        <v>0.05821830253313109</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.094078834565863</v>
       </c>
       <c r="P2">
-        <v>1.38370990200923</v>
+        <v>0.2096118450718762</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.248069289369692</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.190266552924186</v>
+        <v>1.079266836581724</v>
       </c>
       <c r="C3">
-        <v>0.08275882524704059</v>
+        <v>0.08745039109219022</v>
       </c>
       <c r="D3">
-        <v>0.03965334182662872</v>
+        <v>0.04542182686284235</v>
       </c>
       <c r="E3">
-        <v>0.0402832111763054</v>
+        <v>0.03938056064779438</v>
       </c>
       <c r="F3">
-        <v>1.284056992462581</v>
+        <v>1.144709242905726</v>
       </c>
       <c r="G3">
-        <v>1.02983981873993</v>
+        <v>0.8946748439107637</v>
       </c>
       <c r="H3">
-        <v>0.02317239557166273</v>
+        <v>0.01863045672060515</v>
       </c>
       <c r="I3">
-        <v>0.02957256643778639</v>
+        <v>0.02180671611828577</v>
       </c>
       <c r="J3">
-        <v>0.7376823691952836</v>
+        <v>0.6556541681287342</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06071827987430467</v>
+        <v>0.2864290859414105</v>
       </c>
       <c r="M3">
-        <v>0.9758802063437884</v>
+        <v>0.2408235213650762</v>
       </c>
       <c r="N3">
-        <v>0.1637351688844575</v>
+        <v>0.05490780691421548</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9552449481034841</v>
       </c>
       <c r="P3">
-        <v>1.413135986807152</v>
+        <v>0.1858981526746959</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.281123901661193</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.089205516491518</v>
+        <v>0.9885405165229315</v>
       </c>
       <c r="C4">
-        <v>0.07693051532929474</v>
+        <v>0.07947640497841491</v>
       </c>
       <c r="D4">
-        <v>0.03642974357985196</v>
+        <v>0.04170258675863181</v>
       </c>
       <c r="E4">
-        <v>0.03799740955297004</v>
+        <v>0.03732022278518876</v>
       </c>
       <c r="F4">
-        <v>1.249612926889874</v>
+        <v>1.118585454395465</v>
       </c>
       <c r="G4">
-        <v>1.001666020686358</v>
+        <v>0.8770040291190924</v>
       </c>
       <c r="H4">
-        <v>0.02611181376745519</v>
+        <v>0.02103987861279644</v>
       </c>
       <c r="I4">
-        <v>0.03294056093787479</v>
+        <v>0.02433000128052587</v>
       </c>
       <c r="J4">
-        <v>0.7272368282944086</v>
+        <v>0.64551342649834</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05806159730790839</v>
+        <v>0.2865357235132393</v>
       </c>
       <c r="M4">
-        <v>0.8884586329899946</v>
+        <v>0.2364924317326107</v>
       </c>
       <c r="N4">
-        <v>0.1508007711774297</v>
+        <v>0.05282884881412109</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8699767958891016</v>
       </c>
       <c r="P4">
-        <v>1.431598422553179</v>
+        <v>0.1714392574576991</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.3018412307792</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.046944325373886</v>
+        <v>0.9504982856076083</v>
       </c>
       <c r="C5">
-        <v>0.07473951362523934</v>
+        <v>0.07646483653366687</v>
       </c>
       <c r="D5">
-        <v>0.03516528561061705</v>
+        <v>0.04023960607143096</v>
       </c>
       <c r="E5">
-        <v>0.0370454636617108</v>
+        <v>0.03646071844090137</v>
       </c>
       <c r="F5">
-        <v>1.234690849882476</v>
+        <v>1.107103849462511</v>
       </c>
       <c r="G5">
-        <v>0.9892908572688981</v>
+        <v>0.8690273663954429</v>
       </c>
       <c r="H5">
-        <v>0.02739714377125646</v>
+        <v>0.02209479979168616</v>
       </c>
       <c r="I5">
-        <v>0.03450768728694253</v>
+        <v>0.02554365935160163</v>
       </c>
       <c r="J5">
-        <v>0.7225431058802201</v>
+        <v>0.6409062863948947</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05691492070785742</v>
+        <v>0.2862331086322101</v>
       </c>
       <c r="M5">
-        <v>0.8526151822478312</v>
+        <v>0.2346984925336812</v>
       </c>
       <c r="N5">
-        <v>0.1456850288725846</v>
+        <v>0.0519240962342451</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8349870911672213</v>
       </c>
       <c r="P5">
-        <v>1.4385711205882</v>
+        <v>0.1657110154199586</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.309894756089943</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.038674262743143</v>
+        <v>0.9430210152905829</v>
       </c>
       <c r="C6">
-        <v>0.07458198453272047</v>
+        <v>0.07621366065841784</v>
       </c>
       <c r="D6">
-        <v>0.03500977092842561</v>
+        <v>0.04005228766240521</v>
       </c>
       <c r="E6">
-        <v>0.03686615535462501</v>
+        <v>0.03629820796511751</v>
       </c>
       <c r="F6">
-        <v>1.230996609420792</v>
+        <v>1.104099658959385</v>
       </c>
       <c r="G6">
-        <v>0.9860310042630971</v>
+        <v>0.866645735013293</v>
       </c>
       <c r="H6">
-        <v>0.02762654523564756</v>
+        <v>0.02228326838297945</v>
       </c>
       <c r="I6">
-        <v>0.03490729651723878</v>
+        <v>0.02589620191634534</v>
       </c>
       <c r="J6">
-        <v>0.721150250685838</v>
+        <v>0.639571539267024</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0566593541184659</v>
+        <v>0.2858072927222324</v>
       </c>
       <c r="M6">
-        <v>0.846370174656272</v>
+        <v>0.2341601009977197</v>
       </c>
       <c r="N6">
-        <v>0.1450075316839445</v>
+        <v>0.05171754002153328</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8288954222645657</v>
       </c>
       <c r="P6">
-        <v>1.438945533816419</v>
+        <v>0.1649331289699347</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.310639346351312</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.085212904173318</v>
+        <v>0.9839816288942416</v>
       </c>
       <c r="C7">
-        <v>0.07746266744997143</v>
+        <v>0.07988060536710151</v>
       </c>
       <c r="D7">
-        <v>0.03656080477566803</v>
+        <v>0.04199875534629882</v>
       </c>
       <c r="E7">
-        <v>0.03792710864757431</v>
+        <v>0.03728802049542779</v>
       </c>
       <c r="F7">
-        <v>1.246071377476795</v>
+        <v>1.113679177906818</v>
       </c>
       <c r="G7">
-        <v>0.9981924949012182</v>
+        <v>0.8772072245564857</v>
       </c>
       <c r="H7">
-        <v>0.02615835381267673</v>
+        <v>0.02109163324548613</v>
       </c>
       <c r="I7">
-        <v>0.03330836210460841</v>
+        <v>0.02474254934819076</v>
       </c>
       <c r="J7">
-        <v>0.7254885098796251</v>
+        <v>0.6377009978503168</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05786999005555415</v>
+        <v>0.2850872034471408</v>
       </c>
       <c r="M7">
-        <v>0.8871674900504445</v>
+        <v>0.2354500371767401</v>
       </c>
       <c r="N7">
-        <v>0.1511999406233073</v>
+        <v>0.05264102275162408</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8675143324731778</v>
       </c>
       <c r="P7">
-        <v>1.429553940091417</v>
+        <v>0.1717968622872377</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.299533813640579</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.293353694569902</v>
+        <v>1.168463367372823</v>
       </c>
       <c r="C8">
-        <v>0.0897949664151767</v>
+        <v>0.09622304461557007</v>
       </c>
       <c r="D8">
-        <v>0.0433087229686393</v>
+        <v>0.05017496202879812</v>
       </c>
       <c r="E8">
-        <v>0.04263602321414339</v>
+        <v>0.04160657224463371</v>
       </c>
       <c r="F8">
-        <v>1.316811352998869</v>
+        <v>1.163108264504388</v>
       </c>
       <c r="G8">
-        <v>1.055882229422721</v>
+        <v>0.9208060908809017</v>
       </c>
       <c r="H8">
-        <v>0.02034336108321444</v>
+        <v>0.01635206433490055</v>
       </c>
       <c r="I8">
-        <v>0.02671151546493</v>
+        <v>0.01987066386553149</v>
       </c>
       <c r="J8">
-        <v>0.7468497716229336</v>
+        <v>0.6441140442430253</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06328269260660235</v>
+        <v>0.2835697313345058</v>
       </c>
       <c r="M8">
-        <v>1.068182393711965</v>
+        <v>0.2439359792946618</v>
       </c>
       <c r="N8">
-        <v>0.1782203086190037</v>
+        <v>0.05680950406374663</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.041080863930773</v>
       </c>
       <c r="P8">
-        <v>1.391025036073707</v>
+        <v>0.2019223160334462</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.254856802782573</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.70645517658923</v>
+        <v>1.535408458451826</v>
       </c>
       <c r="C9">
-        <v>0.1137088533183004</v>
+        <v>0.1292849218368133</v>
       </c>
       <c r="D9">
-        <v>0.05646656512573855</v>
+        <v>0.06560853290896773</v>
       </c>
       <c r="E9">
-        <v>0.05190062289296016</v>
+        <v>0.04995059957714609</v>
       </c>
       <c r="F9">
-        <v>1.465708277092489</v>
+        <v>1.274205638467038</v>
       </c>
       <c r="G9">
-        <v>1.178527550460615</v>
+        <v>1.003237948897748</v>
       </c>
       <c r="H9">
-        <v>0.01157427089624999</v>
+        <v>0.009204971258465366</v>
       </c>
       <c r="I9">
-        <v>0.01634672182605534</v>
+        <v>0.01213672439233804</v>
       </c>
       <c r="J9">
-        <v>0.7941325327621627</v>
+        <v>0.6813078930472329</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07389805648098502</v>
+        <v>0.2826067175556837</v>
       </c>
       <c r="M9">
-        <v>1.426077558709068</v>
+        <v>0.2687327578944689</v>
       </c>
       <c r="N9">
-        <v>0.2310053082768491</v>
+        <v>0.06499095752464257</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.387438630210937</v>
       </c>
       <c r="P9">
-        <v>1.322411975584465</v>
+        <v>0.2611705173939498</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.176304824727378</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.994907405520223</v>
+        <v>1.785530213571178</v>
       </c>
       <c r="C10">
-        <v>0.1330428369273875</v>
+        <v>0.1542712726242144</v>
       </c>
       <c r="D10">
-        <v>0.06531230941240551</v>
+        <v>0.07701760279768166</v>
       </c>
       <c r="E10">
-        <v>0.0566488887003338</v>
+        <v>0.05429667292217921</v>
       </c>
       <c r="F10">
-        <v>1.557980330457241</v>
+        <v>1.331001953806052</v>
       </c>
       <c r="G10">
-        <v>1.254010086989481</v>
+        <v>1.071749060716328</v>
       </c>
       <c r="H10">
-        <v>0.007341296552387799</v>
+        <v>0.00585479927824295</v>
       </c>
       <c r="I10">
-        <v>0.01108981858450342</v>
+        <v>0.008407884271523614</v>
       </c>
       <c r="J10">
-        <v>0.8218551497869839</v>
+        <v>0.6675532702895879</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07869159562898531</v>
+        <v>0.2758281272968119</v>
       </c>
       <c r="M10">
-        <v>1.683222185781233</v>
+        <v>0.2846166602170257</v>
       </c>
       <c r="N10">
-        <v>0.2619022915568934</v>
+        <v>0.06833882178321105</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.628348164636009</v>
       </c>
       <c r="P10">
-        <v>1.265012762546327</v>
+        <v>0.2959693236680181</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1.111781780807039</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.006369560652672</v>
+        <v>1.792533364697164</v>
       </c>
       <c r="C11">
-        <v>0.1508224019939348</v>
+        <v>0.1709358673506927</v>
       </c>
       <c r="D11">
-        <v>0.06067015443940704</v>
+        <v>0.07369515642218971</v>
       </c>
       <c r="E11">
-        <v>0.04324040223947101</v>
+        <v>0.04171774093844505</v>
       </c>
       <c r="F11">
-        <v>1.437312051097067</v>
+        <v>1.207274658055638</v>
       </c>
       <c r="G11">
-        <v>1.150338536703686</v>
+        <v>1.023059883755224</v>
       </c>
       <c r="H11">
-        <v>0.02571691476921956</v>
+        <v>0.02437694469008989</v>
       </c>
       <c r="I11">
-        <v>0.01051861761520279</v>
+        <v>0.008318136968381573</v>
       </c>
       <c r="J11">
-        <v>0.7652099798897893</v>
+        <v>0.5594166762624866</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06170372189498963</v>
+        <v>0.2446654492064049</v>
       </c>
       <c r="M11">
-        <v>1.737971703774775</v>
+        <v>0.2601355234298417</v>
       </c>
       <c r="N11">
-        <v>0.2062489829259562</v>
+        <v>0.05464853801703917</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.667818884436315</v>
       </c>
       <c r="P11">
-        <v>1.173452037544845</v>
+        <v>0.2352081791579508</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1.043458214192571</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.959436922535247</v>
+        <v>1.753113127849616</v>
       </c>
       <c r="C12">
-        <v>0.161434374529648</v>
+        <v>0.1796698825917105</v>
       </c>
       <c r="D12">
-        <v>0.05482230101846852</v>
+        <v>0.0676947445016296</v>
       </c>
       <c r="E12">
-        <v>0.03367468797102546</v>
+        <v>0.03266551215687485</v>
       </c>
       <c r="F12">
-        <v>1.324388365755283</v>
+        <v>1.105347854247384</v>
       </c>
       <c r="G12">
-        <v>1.054958757997554</v>
+        <v>0.9602545497324684</v>
       </c>
       <c r="H12">
-        <v>0.06466712077495629</v>
+        <v>0.06331870027857178</v>
       </c>
       <c r="I12">
-        <v>0.01042546606708328</v>
+        <v>0.008269229134607592</v>
       </c>
       <c r="J12">
-        <v>0.7153893720867615</v>
+        <v>0.4999371592305977</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05339540009936261</v>
+        <v>0.2238549853381286</v>
       </c>
       <c r="M12">
-        <v>1.729918343210528</v>
+        <v>0.2393343498036522</v>
       </c>
       <c r="N12">
-        <v>0.1582485596451519</v>
+        <v>0.04924585007162086</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.655009025922482</v>
       </c>
       <c r="P12">
-        <v>1.120426363731646</v>
+        <v>0.182510053300895</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.012824977566358</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.85969965835173</v>
+        <v>1.673122420978359</v>
       </c>
       <c r="C13">
-        <v>0.1679119053524545</v>
+        <v>0.1845917857969113</v>
       </c>
       <c r="D13">
-        <v>0.04798458873543154</v>
+        <v>0.05928026732715352</v>
       </c>
       <c r="E13">
-        <v>0.02644134393835529</v>
+        <v>0.02578252006177095</v>
       </c>
       <c r="F13">
-        <v>1.205811126127458</v>
+        <v>1.012065806284497</v>
       </c>
       <c r="G13">
-        <v>0.9553257762646723</v>
+        <v>0.8718908139119605</v>
       </c>
       <c r="H13">
-        <v>0.1211458878685363</v>
+        <v>0.1196471711710529</v>
       </c>
       <c r="I13">
-        <v>0.01113219642550067</v>
+        <v>0.008747141695602423</v>
       </c>
       <c r="J13">
-        <v>0.6652871018061717</v>
+        <v>0.4745448161180548</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.0509288359622273</v>
+        <v>0.2081547223502334</v>
       </c>
       <c r="M13">
-        <v>1.671727950082811</v>
+        <v>0.2197895415219691</v>
       </c>
       <c r="N13">
-        <v>0.1143814280487376</v>
+        <v>0.04947280643495766</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.603190916221166</v>
       </c>
       <c r="P13">
-        <v>1.089970393506487</v>
+        <v>0.1340831884440874</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>1.004312356060578</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.765543697310903</v>
+        <v>1.597969108048005</v>
       </c>
       <c r="C14">
-        <v>0.1708233036673903</v>
+        <v>0.1865862923545194</v>
       </c>
       <c r="D14">
-        <v>0.04286298770231411</v>
+        <v>0.05253527211483089</v>
       </c>
       <c r="E14">
-        <v>0.02281692605770136</v>
+        <v>0.02238029207921022</v>
       </c>
       <c r="F14">
-        <v>1.120576079541166</v>
+        <v>0.9497875206953239</v>
       </c>
       <c r="G14">
-        <v>0.8838270441367229</v>
+        <v>0.8004252419104461</v>
       </c>
       <c r="H14">
-        <v>0.1712118303312167</v>
+        <v>0.1695374618078063</v>
       </c>
       <c r="I14">
-        <v>0.01212005306756048</v>
+        <v>0.009454445895735297</v>
       </c>
       <c r="J14">
-        <v>0.6301154760360106</v>
+        <v>0.4688489954364101</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.0527130584174671</v>
+        <v>0.1989847655891168</v>
       </c>
       <c r="M14">
-        <v>1.60831626121913</v>
+        <v>0.2066542566509426</v>
       </c>
       <c r="N14">
-        <v>0.08676434452095805</v>
+        <v>0.05293236729999506</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.548966110412579</v>
       </c>
       <c r="P14">
-        <v>1.079581912364376</v>
+        <v>0.1033970753590125</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.00761706273723</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.730401841982115</v>
+        <v>1.569831244687066</v>
       </c>
       <c r="C15">
-        <v>0.170851130117498</v>
+        <v>0.1865084950110685</v>
       </c>
       <c r="D15">
-        <v>0.04144141274430524</v>
+        <v>0.05049689811589531</v>
       </c>
       <c r="E15">
-        <v>0.0220857283154956</v>
+        <v>0.02170949294087654</v>
       </c>
       <c r="F15">
-        <v>1.097329405172573</v>
+        <v>0.9346019761608773</v>
       </c>
       <c r="G15">
-        <v>0.8642466797916768</v>
+        <v>0.77797825894379</v>
       </c>
       <c r="H15">
-        <v>0.1840621345312456</v>
+        <v>0.1823037122904765</v>
       </c>
       <c r="I15">
-        <v>0.01270000371377122</v>
+        <v>0.009919490880442083</v>
       </c>
       <c r="J15">
-        <v>0.6208686975532061</v>
+        <v>0.4721598302235321</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.05351311990947671</v>
+        <v>0.1972264275108486</v>
       </c>
       <c r="M15">
-        <v>1.582122584712039</v>
+        <v>0.2033524876225563</v>
       </c>
       <c r="N15">
-        <v>0.0802726510990297</v>
+        <v>0.05410352822356757</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.52704366461478</v>
       </c>
       <c r="P15">
-        <v>1.080342391730158</v>
+        <v>0.09614901231808659</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.011358746417264</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.626949654120551</v>
+        <v>1.486329618705525</v>
       </c>
       <c r="C16">
-        <v>0.1612520532718094</v>
+        <v>0.1774226666051817</v>
       </c>
       <c r="D16">
-        <v>0.03929691506222355</v>
+        <v>0.04640469400720804</v>
       </c>
       <c r="E16">
-        <v>0.02170389817562679</v>
+        <v>0.02137465871450184</v>
       </c>
       <c r="F16">
-        <v>1.081395964587713</v>
+        <v>0.9396518601478974</v>
       </c>
       <c r="G16">
-        <v>0.8513076374266575</v>
+        <v>0.7415340539658217</v>
       </c>
       <c r="H16">
-        <v>0.1731027567079622</v>
+        <v>0.1709306559507837</v>
       </c>
       <c r="I16">
-        <v>0.01491732046512517</v>
+        <v>0.01151085303101418</v>
       </c>
       <c r="J16">
-        <v>0.6185277269745768</v>
+        <v>0.5171808596065972</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.05195917863935584</v>
+        <v>0.2031977206090474</v>
       </c>
       <c r="M16">
-        <v>1.483810089357462</v>
+        <v>0.2037423704397412</v>
       </c>
       <c r="N16">
-        <v>0.07744092454081652</v>
+        <v>0.05239281569627607</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.445595484545606</v>
       </c>
       <c r="P16">
-        <v>1.108123744148805</v>
+        <v>0.09299103447416002</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.03632081672526</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.597224934944819</v>
+        <v>1.460633479456646</v>
       </c>
       <c r="C17">
-        <v>0.1523811531655355</v>
+        <v>0.1689468114937966</v>
       </c>
       <c r="D17">
-        <v>0.04033038689964741</v>
+        <v>0.04693637311395804</v>
       </c>
       <c r="E17">
-        <v>0.02305612793351841</v>
+        <v>0.02259918024329099</v>
       </c>
       <c r="F17">
-        <v>1.113803120140915</v>
+        <v>0.9749519953221863</v>
       </c>
       <c r="G17">
-        <v>0.8788090803837605</v>
+        <v>0.7540932994842251</v>
       </c>
       <c r="H17">
-        <v>0.1363341455664795</v>
+        <v>0.1339394382095094</v>
       </c>
       <c r="I17">
-        <v>0.01614440555361352</v>
+        <v>0.01241300240800047</v>
       </c>
       <c r="J17">
-        <v>0.6352043296052443</v>
+        <v>0.551837965545019</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.04919667273888706</v>
+        <v>0.212788759649218</v>
       </c>
       <c r="M17">
-        <v>1.442088945851225</v>
+        <v>0.2104106787552489</v>
       </c>
       <c r="N17">
-        <v>0.08917569325666364</v>
+        <v>0.04873417696130744</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.410012063274166</v>
       </c>
       <c r="P17">
-        <v>1.134546892507346</v>
+        <v>0.1060289385678956</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1.055055349511032</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.63005222351174</v>
+        <v>1.486179191983524</v>
       </c>
       <c r="C18">
-        <v>0.1427593216087075</v>
+        <v>0.1600652129232714</v>
       </c>
       <c r="D18">
-        <v>0.04422878652095363</v>
+        <v>0.05117166637114678</v>
       </c>
       <c r="E18">
-        <v>0.02740661994174687</v>
+        <v>0.02660114364814437</v>
       </c>
       <c r="F18">
-        <v>1.195873928142348</v>
+        <v>1.047340859946793</v>
       </c>
       <c r="G18">
-        <v>0.9483447756256567</v>
+        <v>0.8064749156540358</v>
       </c>
       <c r="H18">
-        <v>0.0836886702105204</v>
+        <v>0.08125381913222895</v>
       </c>
       <c r="I18">
-        <v>0.01616333597020159</v>
+        <v>0.01231418769623538</v>
       </c>
       <c r="J18">
-        <v>0.6721171950152183</v>
+        <v>0.5914231457305164</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.04838029729373372</v>
+        <v>0.2283998375544698</v>
       </c>
       <c r="M18">
-        <v>1.444442433431902</v>
+        <v>0.2246940469571292</v>
       </c>
       <c r="N18">
-        <v>0.1177928951923946</v>
+        <v>0.04614386020333372</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.412945416410366</v>
       </c>
       <c r="P18">
-        <v>1.16813603104732</v>
+        <v>0.1377018287837686</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.074784957787448</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.704864588307828</v>
+        <v>1.546285935182283</v>
       </c>
       <c r="C19">
-        <v>0.1349329241041346</v>
+        <v>0.153472946824607</v>
       </c>
       <c r="D19">
-        <v>0.05061714849507126</v>
+        <v>0.0584690134387742</v>
       </c>
       <c r="E19">
-        <v>0.03581732627921319</v>
+        <v>0.03447108685611866</v>
       </c>
       <c r="F19">
-        <v>1.310560838048445</v>
+        <v>1.143928518673221</v>
       </c>
       <c r="G19">
-        <v>1.044855549933686</v>
+        <v>0.8827114613250728</v>
       </c>
       <c r="H19">
-        <v>0.0376744322594007</v>
+        <v>0.03537716907077737</v>
       </c>
       <c r="I19">
-        <v>0.01578609906794526</v>
+        <v>0.0121078194862605</v>
       </c>
       <c r="J19">
-        <v>0.7215240013092057</v>
+        <v>0.6345771165767928</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.05403829979536567</v>
+        <v>0.2475150735306819</v>
       </c>
       <c r="M19">
-        <v>1.480315473337612</v>
+        <v>0.2438075731253129</v>
       </c>
       <c r="N19">
-        <v>0.1636300228042344</v>
+        <v>0.04922829025874087</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.446130471003329</v>
       </c>
       <c r="P19">
-        <v>1.209866835525791</v>
+        <v>0.1881050376956139</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.097972828422963</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.907649262756422</v>
+        <v>1.712850126618093</v>
       </c>
       <c r="C20">
-        <v>0.1297877830470355</v>
+        <v>0.1508218134691219</v>
       </c>
       <c r="D20">
-        <v>0.06340666384908644</v>
+        <v>0.07382445930011983</v>
       </c>
       <c r="E20">
-        <v>0.05513996297827717</v>
+        <v>0.05279159773398767</v>
       </c>
       <c r="F20">
-        <v>1.522443279664898</v>
+        <v>1.312391804666007</v>
       </c>
       <c r="G20">
-        <v>1.223124678747709</v>
+        <v>1.032278181966646</v>
       </c>
       <c r="H20">
-        <v>0.008368848620262881</v>
+        <v>0.00664198713414077</v>
       </c>
       <c r="I20">
-        <v>0.01329281717642239</v>
+        <v>0.01035276243975414</v>
       </c>
       <c r="J20">
-        <v>0.808966232862204</v>
+        <v>0.6873539399514357</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07678722918293346</v>
+        <v>0.2762983646428978</v>
       </c>
       <c r="M20">
-        <v>1.612643844212755</v>
+        <v>0.2788773906004707</v>
       </c>
       <c r="N20">
-        <v>0.2548793168665355</v>
+        <v>0.06700264176410897</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.566830582786451</v>
       </c>
       <c r="P20">
-        <v>1.273604611229203</v>
+        <v>0.2880348183418704</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>1.126637245043216</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.151484329088191</v>
+        <v>1.905028945077134</v>
       </c>
       <c r="C21">
-        <v>0.143202951077626</v>
+        <v>0.1640796798168935</v>
       </c>
       <c r="D21">
-        <v>0.0717670268818722</v>
+        <v>0.08783123613818589</v>
       </c>
       <c r="E21">
-        <v>0.06193439685745972</v>
+        <v>0.05979958822862841</v>
       </c>
       <c r="F21">
-        <v>1.625339464200835</v>
+        <v>1.34987694710567</v>
       </c>
       <c r="G21">
-        <v>1.308547168157617</v>
+        <v>1.172487234127715</v>
       </c>
       <c r="H21">
-        <v>0.005135543629185446</v>
+        <v>0.004110241285982252</v>
       </c>
       <c r="I21">
-        <v>0.009563172528890718</v>
+        <v>0.007779859204191553</v>
       </c>
       <c r="J21">
-        <v>0.844142037309183</v>
+        <v>0.5851354608332286</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08480758834487645</v>
+        <v>0.2697931039283503</v>
       </c>
       <c r="M21">
-        <v>1.821950925337802</v>
+        <v>0.2901403916676841</v>
       </c>
       <c r="N21">
-        <v>0.291868876992126</v>
+        <v>0.0727316559864164</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.738192751277381</v>
       </c>
       <c r="P21">
-        <v>1.244402288663707</v>
+        <v>0.3285510552940281</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>1.075004355392505</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.30897562153001</v>
+        <v>2.027388895427919</v>
       </c>
       <c r="C22">
-        <v>0.1518142779081444</v>
+        <v>0.1720539313513996</v>
       </c>
       <c r="D22">
-        <v>0.07653901511540795</v>
+        <v>0.0966267348684795</v>
       </c>
       <c r="E22">
-        <v>0.06543364795654938</v>
+        <v>0.06356614874427891</v>
       </c>
       <c r="F22">
-        <v>1.688198238637199</v>
+        <v>1.367889138692135</v>
       </c>
       <c r="G22">
-        <v>1.36132753791928</v>
+        <v>1.271453470701118</v>
       </c>
       <c r="H22">
-        <v>0.003589609406153382</v>
+        <v>0.002911356715626368</v>
       </c>
       <c r="I22">
-        <v>0.007262537139688163</v>
+        <v>0.006026250163431612</v>
       </c>
       <c r="J22">
-        <v>0.8656572032008683</v>
+        <v>0.5191734743386007</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08886305014622309</v>
+        <v>0.2646229558991884</v>
       </c>
       <c r="M22">
-        <v>1.956857194102412</v>
+        <v>0.2967472806822471</v>
       </c>
       <c r="N22">
-        <v>0.3111469561355733</v>
+        <v>0.07546151979167348</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.845856145845346</v>
       </c>
       <c r="P22">
-        <v>1.224050092277501</v>
+        <v>0.349683464198506</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>1.040567241030494</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.229098309093274</v>
+        <v>1.968392713870969</v>
       </c>
       <c r="C23">
-        <v>0.146504211512493</v>
+        <v>0.167583219997951</v>
       </c>
       <c r="D23">
-        <v>0.07380911695015158</v>
+        <v>0.09123526927876213</v>
       </c>
       <c r="E23">
-        <v>0.06363409023225586</v>
+        <v>0.06151751712653208</v>
       </c>
       <c r="F23">
-        <v>1.65848855522087</v>
+        <v>1.366132565030725</v>
       </c>
       <c r="G23">
-        <v>1.33696654266565</v>
+        <v>1.212159336500292</v>
       </c>
       <c r="H23">
-        <v>0.00436571695383281</v>
+        <v>0.003504522717768133</v>
       </c>
       <c r="I23">
-        <v>0.008092422789371945</v>
+        <v>0.006506042399207601</v>
       </c>
       <c r="J23">
-        <v>0.8560901938868994</v>
+        <v>0.5673276560427922</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08690847711192973</v>
+        <v>0.2690889772816583</v>
       </c>
       <c r="M23">
-        <v>1.885819119351027</v>
+        <v>0.2952305406038676</v>
       </c>
       <c r="N23">
-        <v>0.3002738153498967</v>
+        <v>0.07423184872254751</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.792751414183414</v>
       </c>
       <c r="P23">
-        <v>1.237097243712157</v>
+        <v>0.3379127186836968</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>1.061663377720382</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.920357606631086</v>
+        <v>1.723673292828408</v>
       </c>
       <c r="C24">
-        <v>0.1278334805157328</v>
+        <v>0.1486727106988184</v>
       </c>
       <c r="D24">
-        <v>0.06382374777413702</v>
+        <v>0.07430843127563236</v>
       </c>
       <c r="E24">
-        <v>0.05672502717295558</v>
+        <v>0.05429529154241841</v>
       </c>
       <c r="F24">
-        <v>1.541454742156418</v>
+        <v>1.328858777215828</v>
       </c>
       <c r="G24">
-        <v>1.240089386056013</v>
+        <v>1.045748995528029</v>
       </c>
       <c r="H24">
-        <v>0.008104926180493272</v>
+        <v>0.00639876901335884</v>
       </c>
       <c r="I24">
-        <v>0.01267066453170784</v>
+        <v>0.009649856564933224</v>
       </c>
       <c r="J24">
-        <v>0.8176242096512993</v>
+        <v>0.6956334747600863</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07915203771186441</v>
+        <v>0.280119783336751</v>
       </c>
       <c r="M24">
-        <v>1.616268963510947</v>
+        <v>0.2826460889982769</v>
       </c>
       <c r="N24">
-        <v>0.2602643362185972</v>
+        <v>0.06896882626285716</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.570303155895317</v>
       </c>
       <c r="P24">
-        <v>1.284035696394149</v>
+        <v>0.2939623237887332</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>1.133499810701181</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.588456195898203</v>
+        <v>1.432025193771324</v>
       </c>
       <c r="C25">
-        <v>0.1081860480093937</v>
+        <v>0.1217993153066459</v>
       </c>
       <c r="D25">
-        <v>0.05315520966453136</v>
+        <v>0.06143838934538337</v>
       </c>
       <c r="E25">
-        <v>0.04929476111943565</v>
+        <v>0.04755734970088987</v>
       </c>
       <c r="F25">
-        <v>1.418908625665438</v>
+        <v>1.240988996326706</v>
       </c>
       <c r="G25">
-        <v>1.138954339365782</v>
+        <v>0.9706798706238544</v>
       </c>
       <c r="H25">
-        <v>0.01367621330230145</v>
+        <v>0.01090124157658411</v>
       </c>
       <c r="I25">
-        <v>0.01935446633542171</v>
+        <v>0.01456031264097746</v>
       </c>
       <c r="J25">
-        <v>0.7780468576154789</v>
+        <v>0.6772124996368234</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07073736253308383</v>
+        <v>0.2820121852110162</v>
       </c>
       <c r="M25">
-        <v>1.327517825549137</v>
+        <v>0.2604774783314667</v>
       </c>
       <c r="N25">
-        <v>0.2175052526381904</v>
+        <v>0.06257722027993395</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.294015490780851</v>
       </c>
       <c r="P25">
-        <v>1.337001397417716</v>
+        <v>0.2459573135218562</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.195674861644438</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
